--- a/Grad Clothing voting/ballots_table - Copy.xlsx
+++ b/Grad Clothing voting/ballots_table - Copy.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_F25DC773A252ABEACE02ECD4E35F4CB25BDE589F" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B8F63E25-46D8-4213-8794-7B357ECD0CB8}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_F25DC773A252ABEACE02ECD4E35F4CB25BDE589F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6FE2EC7C-5138-40F1-A8EF-9E68BD6F6949}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -25,150 +33,6 @@
     <t>Email Address</t>
   </si>
   <si>
-    <t>wuli@utschools.ca</t>
-  </si>
-  <si>
-    <t>szyju@utschools.ca</t>
-  </si>
-  <si>
-    <t>zhawi@utschools.ca</t>
-  </si>
-  <si>
-    <t>level@utschools.ca</t>
-  </si>
-  <si>
-    <t>chuja@utschools.ca</t>
-  </si>
-  <si>
-    <t>liusu@utschools.ca</t>
-  </si>
-  <si>
-    <t>mara@utschools.ca</t>
-  </si>
-  <si>
-    <t>hasta@utschools.ca</t>
-  </si>
-  <si>
-    <t>huncl@utschools.ca</t>
-  </si>
-  <si>
-    <t>chomi@utschools.ca</t>
-  </si>
-  <si>
-    <t>shahe@utschools.ca</t>
-  </si>
-  <si>
-    <t>lausa@utschools.ca</t>
-  </si>
-  <si>
-    <t>ellgr@utschools.ca</t>
-  </si>
-  <si>
-    <t>leoso@utschools.ca</t>
-  </si>
-  <si>
-    <t>graan@utschools.ca</t>
-  </si>
-  <si>
-    <t>cheal@utschools.ca</t>
-  </si>
-  <si>
-    <t>liury@utschools.ca</t>
-  </si>
-  <si>
-    <t>camjo@utschools.ca</t>
-  </si>
-  <si>
-    <t>dcoce@utschools.ca</t>
-  </si>
-  <si>
-    <t>fogav@utschools.ca</t>
-  </si>
-  <si>
-    <t>manga@utschools.ca</t>
-  </si>
-  <si>
-    <t>uchkr@utschools.ca</t>
-  </si>
-  <si>
-    <t>baret@utschools.ca</t>
-  </si>
-  <si>
-    <t>shacl@utschools.ca</t>
-  </si>
-  <si>
-    <t>kanev@utschools.ca</t>
-  </si>
-  <si>
-    <t>mehvi@utschools.ca</t>
-  </si>
-  <si>
-    <t>tanmi@utschools.ca</t>
-  </si>
-  <si>
-    <t>aggar@utschools.ca</t>
-  </si>
-  <si>
-    <t>pitca@utschools.ca</t>
-  </si>
-  <si>
-    <t>tozar@utschools.ca</t>
-  </si>
-  <si>
-    <t>golel@utschools.ca</t>
-  </si>
-  <si>
-    <t>gryzo@utschools.ca</t>
-  </si>
-  <si>
-    <t>huaca@utschools.ca</t>
-  </si>
-  <si>
-    <t>lazzo@utschools.ca</t>
-  </si>
-  <si>
-    <t>leesoo@utschools.ca</t>
-  </si>
-  <si>
-    <t>chave@utschools.ca</t>
-  </si>
-  <si>
-    <t>panal@utschools.ca</t>
-  </si>
-  <si>
-    <t>morpa@utschools.ca</t>
-  </si>
-  <si>
-    <t>forsa@utschools.ca</t>
-  </si>
-  <si>
-    <t>whirh@utschools.ca</t>
-  </si>
-  <si>
-    <t>maist@utschools.ca</t>
-  </si>
-  <si>
-    <t>zhaal@utschools.ca</t>
-  </si>
-  <si>
-    <t>seeju@utschools.ca</t>
-  </si>
-  <si>
-    <t>lily@utschools.ca</t>
-  </si>
-  <si>
-    <t>grose@utschools.ca</t>
-  </si>
-  <si>
-    <t>crnse@utschools.ca</t>
-  </si>
-  <si>
-    <t>bhaae@utschools.ca</t>
-  </si>
-  <si>
-    <t>chijo@utschools.ca</t>
-  </si>
-  <si>
     <t>If we choose a hoodie, please rank the options for colour? [Black]</t>
   </si>
   <si>
@@ -223,37 +87,181 @@
     <t>If we choose a hoodie, please rank the options for colour? [White]</t>
   </si>
   <si>
-    <t>szazo@utschools.ca</t>
-  </si>
-  <si>
-    <t>beiga@utschools.ca</t>
-  </si>
-  <si>
-    <t>minda@utschools.ca</t>
-  </si>
-  <si>
-    <t>zhaer@utschools.ca</t>
-  </si>
-  <si>
-    <t>zhada@utschools.ca</t>
-  </si>
-  <si>
-    <t>lija@utschools.ca</t>
-  </si>
-  <si>
-    <t>yuhe@utschools.ca</t>
-  </si>
-  <si>
-    <t>parja@utschools.ca</t>
-  </si>
-  <si>
-    <t>lamli@utschools.ca</t>
-  </si>
-  <si>
-    <t>linra@utschools.ca</t>
-  </si>
-  <si>
-    <t>linje@utschools.ca</t>
+    <t>ANON2@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON3@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON4@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON5@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON6@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON7@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON8@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON9@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON10@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON11@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON12@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON13@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON14@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON15@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON16@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON17@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON18@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON19@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON20@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON21@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON22@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON23@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON24@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON25@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON26@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON27@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON28@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON29@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON30@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON31@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON32@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON33@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON34@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON35@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON36@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON37@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON38@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON39@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON40@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON41@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON42@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON43@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON44@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON45@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON46@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON47@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON48@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON49@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON50@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON51@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON52@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON53@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON54@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON55@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON56@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON57@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON58@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON59@utschools.ca</t>
+  </si>
+  <si>
+    <t>ANON60@utschools.ca</t>
   </si>
 </sst>
 </file>
@@ -585,74 +593,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="28.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2">
         <v>7</v>
@@ -709,9 +720,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2">
         <v>9</v>
@@ -768,9 +779,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2">
         <v>6</v>
@@ -827,9 +838,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -886,9 +897,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -945,9 +956,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -1004,9 +1015,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2">
         <v>8</v>
@@ -1063,9 +1074,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2">
         <v>7</v>
@@ -1122,9 +1133,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
@@ -1177,9 +1188,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2">
         <v>4</v>
@@ -1234,9 +1245,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -1291,9 +1302,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
@@ -1324,9 +1335,9 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -1383,9 +1394,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2">
@@ -1438,9 +1449,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2">
         <v>7</v>
@@ -1497,9 +1508,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -1556,9 +1567,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -1615,9 +1626,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1642,9 +1653,9 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1671,9 +1682,9 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2">
         <v>8</v>
@@ -1712,9 +1723,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1757,9 +1768,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2">
         <v>2</v>
@@ -1816,9 +1827,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1839,9 +1850,9 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2">
         <v>7</v>
@@ -1880,9 +1891,9 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2">
         <v>2</v>
@@ -1937,9 +1948,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2">
         <v>4</v>
@@ -1980,9 +1991,9 @@
       </c>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2">
         <v>3</v>
@@ -2011,9 +2022,9 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -2068,9 +2079,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2093,9 +2104,9 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2">
         <v>15</v>
@@ -2146,9 +2157,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2179,9 +2190,9 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2">
         <v>9</v>
@@ -2238,9 +2249,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2">
         <v>9</v>
@@ -2279,9 +2290,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2">
         <v>3</v>
@@ -2314,9 +2325,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2">
         <v>15</v>
@@ -2355,9 +2366,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2378,9 +2389,9 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="2">
@@ -2411,9 +2422,9 @@
       </c>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2">
         <v>2</v>
@@ -2470,9 +2481,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2">
         <v>11</v>
@@ -2529,9 +2540,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B41" s="2">
         <v>9</v>
@@ -2588,9 +2599,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
@@ -2631,9 +2642,9 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B43" s="2">
         <v>1</v>
@@ -2668,9 +2679,9 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
@@ -2705,9 +2716,9 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B45" s="2">
         <v>1</v>
@@ -2738,9 +2749,9 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B46" s="2">
         <v>3</v>
@@ -2797,9 +2808,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B47" s="2">
         <v>7</v>
@@ -2856,9 +2867,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2881,9 +2892,9 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B49" s="2">
         <v>8</v>
@@ -2940,7 +2951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>67</v>
       </c>
@@ -2963,7 +2974,7 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>68</v>
       </c>
@@ -3022,7 +3033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>69</v>
       </c>
@@ -3063,7 +3074,7 @@
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
     </row>
-    <row r="53" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>70</v>
       </c>
@@ -3104,7 +3115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="39" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>71</v>
       </c>
@@ -3147,7 +3158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>72</v>
       </c>
@@ -3178,7 +3189,7 @@
       </c>
       <c r="S55" s="1"/>
     </row>
-    <row r="56" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>73</v>
       </c>
@@ -3237,7 +3248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>74</v>
       </c>
@@ -3268,7 +3279,7 @@
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
     </row>
-    <row r="58" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>75</v>
       </c>
@@ -3323,7 +3334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>76</v>
       </c>
@@ -3364,7 +3375,7 @@
       </c>
       <c r="S59" s="1"/>
     </row>
-    <row r="60" spans="1:19" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>77</v>
       </c>
